--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125884.0293433872</v>
+        <v>123445.5562436404</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186.0363820489005</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>307.0284381244513</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>86.26365474672792</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>203.492623768271</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>62.09581973348902</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>278.1429131767408</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>198.2150714740761</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>46.32785013185514</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>189.1329927668882</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>133.5178308303456</v>
+        <v>218.5174356271583</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>34.77625773432515</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>79.54581243241793</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I13" t="n">
-        <v>7.069540131682156</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012358</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>136.5078095423549</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922734</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>239.512404915627</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>39.83255574579082</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>72.60410776434246</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>108.524925799985</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>162.4016674345625</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>73.98898794535445</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824998</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>104.5660821043932</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>166.8892976061571</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>201.4105577836242</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>95.25381996636069</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2021.316538679032</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C2" t="n">
-        <v>1652.35402173862</v>
+        <v>611.6407204003829</v>
       </c>
       <c r="D2" t="n">
-        <v>1294.08832313187</v>
+        <v>611.6407204003829</v>
       </c>
       <c r="E2" t="n">
-        <v>908.3000705336256</v>
+        <v>611.6407204003829</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>611.6407204003829</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339055</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2599.371408077976</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2209.232076102164</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.7237329438971</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C4" t="n">
-        <v>775.7875500159902</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1864.571497852645</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1864.571497852645</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1864.571497852645</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1864.571497852645</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1864.571497852645</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1575.154327815684</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.164776917667</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y4" t="n">
-        <v>1126.372197774137</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>769.4825048886539</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,13 +4580,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2331.266366609372</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1941.127034633561</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.1346335501037</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1598.982398458852</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1598.982398458852</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1598.982398458852</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1309.565228421891</v>
+        <v>689.1808091248688</v>
       </c>
       <c r="X7" t="n">
-        <v>1081.575677523874</v>
+        <v>689.1808091248688</v>
       </c>
       <c r="Y7" t="n">
-        <v>860.7830983803434</v>
+        <v>689.1808091248688</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>2984.761578205166</v>
+        <v>3104.881139157497</v>
       </c>
       <c r="V8" t="n">
-        <v>2653.698690861595</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W8" t="n">
-        <v>2300.930035591481</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>1927.464277330401</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1927.464277330401</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>936.5735814686088</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>846.0716871064765</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>827.0643955080142</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>588.395308462682</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>419.4591255347751</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>269.3424861224394</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1565.428901185557</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1276.3260343112</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1021.641546105313</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="X10" t="n">
-        <v>809.1878876062121</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y10" t="n">
-        <v>588.395308462682</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,7 +5066,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9096564684976</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1023.721406539402</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>854.7852236114949</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>704.6685841991591</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>556.755490616766</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>409.8655431188556</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6694438337356</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
-        <v>100.9576126759336</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510506</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304619</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267659</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369641</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1205.369871369641</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,10 +5270,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687896</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>917.5010142286973</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232883</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232883</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408952</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429848</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1099.149479058937</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5598,19 +5598,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.6442739835331</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>2022.176527098168</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1767.492038892281</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1478.07486885532</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.085317957303</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.292738813773</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5744,19 +5744,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5768,31 +5768,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487564</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831761</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625874</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588914</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.896109690896</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473662</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797706</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580257</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2517.442480416598</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2517.442480416598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2517.442480416598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>639.9526724577793</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>417.9651836029414</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L30" t="n">
-        <v>913.2907898187001</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,13 +6710,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>913.2907898187001</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6918836311989</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7557007032921</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>482.6390612909563</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>482.6390612909563</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>335.7491137930459</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>168.5530145079259</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614387</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811333</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532264</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
         <v>2264.108249235165</v>
@@ -7129,16 +7129,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1466.014387565343</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1238.024836667326</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2149.810879820877</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1332.172021309389</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7421,34 +7421,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>506.2737913123336</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O45" t="n">
-        <v>1872.470231673185</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1053.171308869725</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>884.2351259418183</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>734.1184865294825</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>586.2053929470894</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>439.315445449179</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>272.119346164059</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1683.601903741512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.612352843495</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1234.819773699965</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>58.24445364655627</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>320.6123909949835</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22711,19 +22711,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>26.83633293655833</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I13" t="n">
-        <v>74.19629618688339</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>30.73901155627297</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>46.67206947361714</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>139.9994244361465</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>213.9188905722485</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>40.09054721822739</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>44.73700564187165</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>66.30572490086944</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>114.0185712477016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>119.6337007304339</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>84.77391660561992</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>45.04089287986319</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>999460.8965497026</v>
+        <v>999460.8965497018</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1079838.291994468</v>
+        <v>1079838.291994467</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1079838.291994467</v>
+        <v>1079838.291994468</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1079838.291994468</v>
+        <v>1079838.291994467</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1079838.291994468</v>
+        <v>1079838.291994467</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1079838.291994468</v>
+        <v>1079838.291994467</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1079838.291994468</v>
+        <v>1079838.291994467</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1079838.291994468</v>
+        <v>1079838.291994467</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406864</v>
+        <v>317255.8761406862</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
         <v>343037.3048682527</v>
@@ -26329,31 +26329,31 @@
         <v>343037.3048682528</v>
       </c>
       <c r="H2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.3048682525</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="J2" t="n">
-        <v>343037.3048682525</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="K2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="M2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="L2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682526</v>
-      </c>
       <c r="N2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682528</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,19 +26375,19 @@
         <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47799.18331047983</v>
+        <v>47799.18331047953</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314473</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
@@ -26436,10 +26436,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26448,13 +26448,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179349</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1167221.993458779</v>
+        <v>-1167408.386847318</v>
       </c>
       <c r="C6" t="n">
         <v>150654.7446077823</v>
       </c>
       <c r="D6" t="n">
-        <v>150654.7446077822</v>
+        <v>150654.7446077821</v>
       </c>
       <c r="E6" t="n">
-        <v>-94664.71901480277</v>
+        <v>-94699.45694023836</v>
       </c>
       <c r="F6" t="n">
-        <v>230747.7427925518</v>
+        <v>230713.0048671163</v>
       </c>
       <c r="G6" t="n">
-        <v>230747.7427925522</v>
+        <v>230713.0048671164</v>
       </c>
       <c r="H6" t="n">
-        <v>230747.742792552</v>
+        <v>230713.0048671162</v>
       </c>
       <c r="I6" t="n">
-        <v>230747.7427925519</v>
+        <v>230713.0048671163</v>
       </c>
       <c r="J6" t="n">
-        <v>13216.54039527445</v>
+        <v>13181.80246983902</v>
       </c>
       <c r="K6" t="n">
-        <v>230747.742792552</v>
+        <v>230713.0048671165</v>
       </c>
       <c r="L6" t="n">
-        <v>230747.742792552</v>
+        <v>230713.0048671165</v>
       </c>
       <c r="M6" t="n">
-        <v>145692.7148570403</v>
+        <v>145657.9769316046</v>
       </c>
       <c r="N6" t="n">
-        <v>230747.7427925519</v>
+        <v>230713.0048671165</v>
       </c>
       <c r="O6" t="n">
-        <v>230747.7427925519</v>
+        <v>230713.0048671165</v>
       </c>
       <c r="P6" t="n">
-        <v>230747.7427925522</v>
+        <v>230713.0048671164</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26969,13 +26969,13 @@
         <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>196.6974596145801</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>207.4291018851824</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>73.85778156328857</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>103.787456895521</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>171.5160292043929</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>173.2210991443141</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>97.39000556970282</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>117.4773411285564</v>
+        <v>32.47773633174364</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>111.657704912244</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>140.0031368437513</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31844,31 +31844,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>269.1634560719511</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>487.5039436775326</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>456.3459017226598</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>695.222208616788</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32318,22 +32318,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>140.7358547888808</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>536.8001439125376</v>
+        <v>208.6096528357816</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>604.2458225991924</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.6580975439405</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>312.3207226334981</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,22 +33500,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>476.0648089385468</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016567</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>268.6704608606964</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>401.521336481369</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>338.130958502898</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>548.8125296967492</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>127.0294221499328</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>356.1622315941992</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>563.8804965334547</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7540807028592577</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060414</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>394.6661099905193</v>
+        <v>66.47561891376326</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191277</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>472.904110515859</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.9785935799765</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>174.4792836591391</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5104291586726</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>134.6960534463662</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195647</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>414.838122282419</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
